--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H2">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I2">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J2">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.948717333333334</v>
+        <v>7.163958</v>
       </c>
       <c r="N2">
-        <v>14.846152</v>
+        <v>21.491874</v>
       </c>
       <c r="O2">
-        <v>0.4012480345574643</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="P2">
-        <v>0.4012480345574642</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="Q2">
-        <v>11.70177494656622</v>
+        <v>29.457127866258</v>
       </c>
       <c r="R2">
-        <v>105.315974519096</v>
+        <v>265.114150796322</v>
       </c>
       <c r="S2">
-        <v>0.2289849499433073</v>
+        <v>0.3991901057089073</v>
       </c>
       <c r="T2">
-        <v>0.2289849499433072</v>
+        <v>0.3991901057089073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H3">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I3">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J3">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>2.091081</v>
       </c>
       <c r="N3">
-        <v>6.273243000000001</v>
+        <v>6.273242999999999</v>
       </c>
       <c r="O3">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686175</v>
       </c>
       <c r="P3">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686176</v>
       </c>
       <c r="Q3">
-        <v>4.944586164221001</v>
+        <v>8.598213500930997</v>
       </c>
       <c r="R3">
-        <v>44.501275477989</v>
+        <v>77.38392150837898</v>
       </c>
       <c r="S3">
-        <v>0.09675761330863397</v>
+        <v>0.1165192265833897</v>
       </c>
       <c r="T3">
-        <v>0.09675761330863394</v>
+        <v>0.1165192265833897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H4">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I4">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J4">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5791203333333333</v>
+        <v>0.4156183333333334</v>
       </c>
       <c r="N4">
-        <v>1.737361</v>
+        <v>1.246855</v>
       </c>
       <c r="O4">
-        <v>0.04695578265444075</v>
+        <v>0.03038169845111343</v>
       </c>
       <c r="P4">
-        <v>0.04695578265444072</v>
+        <v>0.03038169845111344</v>
       </c>
       <c r="Q4">
-        <v>1.369392380122556</v>
+        <v>1.708960659535</v>
       </c>
       <c r="R4">
-        <v>12.324531421103</v>
+        <v>15.380645935815</v>
       </c>
       <c r="S4">
-        <v>0.02679681048789304</v>
+        <v>0.02315908697648607</v>
       </c>
       <c r="T4">
-        <v>0.02679681048789303</v>
+        <v>0.02315908697648607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H5">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I5">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J5">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.638666333333333</v>
+        <v>3.342326666666667</v>
       </c>
       <c r="N5">
-        <v>10.915999</v>
+        <v>10.02698</v>
       </c>
       <c r="O5">
-        <v>0.2950275023441256</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="P5">
-        <v>0.2950275023441255</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="Q5">
-        <v>8.604018308241889</v>
+        <v>13.74314924666</v>
       </c>
       <c r="R5">
-        <v>77.43616477417699</v>
+        <v>123.68834321994</v>
       </c>
       <c r="S5">
-        <v>0.168366825598727</v>
+        <v>0.1862411442641576</v>
       </c>
       <c r="T5">
-        <v>0.1683668255987269</v>
+        <v>0.1862411442641577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H6">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I6">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J6">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1104196666666667</v>
+        <v>0.1557673333333333</v>
       </c>
       <c r="N6">
-        <v>0.331259</v>
+        <v>0.467302</v>
       </c>
       <c r="O6">
-        <v>0.008952961190177161</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="P6">
-        <v>0.008952961190177158</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="Q6">
-        <v>0.2610991903507777</v>
+        <v>0.6404920653339999</v>
       </c>
       <c r="R6">
-        <v>2.349892713157</v>
+        <v>5.764428588005999</v>
       </c>
       <c r="S6">
-        <v>0.005109291992515636</v>
+        <v>0.008679668174956906</v>
       </c>
       <c r="T6">
-        <v>0.005109291992515635</v>
+        <v>0.008679668174956906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H7">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I7">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J7">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9653076666666668</v>
+        <v>0.51114</v>
       </c>
       <c r="N7">
-        <v>2.895923</v>
+        <v>1.53342</v>
       </c>
       <c r="O7">
-        <v>0.07826832245687339</v>
+        <v>0.03736433189016073</v>
       </c>
       <c r="P7">
-        <v>0.07826832245687336</v>
+        <v>0.03736433189016074</v>
       </c>
       <c r="Q7">
-        <v>2.282573909292112</v>
+        <v>2.10173152014</v>
       </c>
       <c r="R7">
-        <v>20.543165183629</v>
+        <v>18.91558368126</v>
       </c>
       <c r="S7">
-        <v>0.04466630701306791</v>
+        <v>0.02848174579360332</v>
       </c>
       <c r="T7">
-        <v>0.0446663070130679</v>
+        <v>0.02848174579360333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.323865</v>
       </c>
       <c r="I8">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J8">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.948717333333334</v>
+        <v>7.163958</v>
       </c>
       <c r="N8">
-        <v>14.846152</v>
+        <v>21.491874</v>
       </c>
       <c r="O8">
-        <v>0.4012480345574643</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="P8">
-        <v>0.4012480345574642</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="Q8">
-        <v>2.183811224164445</v>
+        <v>3.16137108589</v>
       </c>
       <c r="R8">
-        <v>19.65430101748</v>
+        <v>28.45233977301</v>
       </c>
       <c r="S8">
-        <v>0.042733679816468</v>
+        <v>0.04284151746535583</v>
       </c>
       <c r="T8">
-        <v>0.042733679816468</v>
+        <v>0.04284151746535584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.323865</v>
       </c>
       <c r="I9">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J9">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>2.091081</v>
       </c>
       <c r="N9">
-        <v>6.273243000000001</v>
+        <v>6.273242999999999</v>
       </c>
       <c r="O9">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686175</v>
       </c>
       <c r="P9">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686176</v>
       </c>
       <c r="Q9">
-        <v>0.9227696493550002</v>
+        <v>0.9227696493549998</v>
       </c>
       <c r="R9">
-        <v>8.304926844195002</v>
+        <v>8.304926844194998</v>
       </c>
       <c r="S9">
-        <v>0.01805712064465588</v>
+        <v>0.01250497046227431</v>
       </c>
       <c r="T9">
-        <v>0.01805712064465588</v>
+        <v>0.01250497046227431</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.323865</v>
       </c>
       <c r="I10">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J10">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5791203333333333</v>
+        <v>0.4156183333333334</v>
       </c>
       <c r="N10">
-        <v>1.737361</v>
+        <v>1.246855</v>
       </c>
       <c r="O10">
-        <v>0.04695578265444075</v>
+        <v>0.03038169845111343</v>
       </c>
       <c r="P10">
-        <v>0.04695578265444072</v>
+        <v>0.03038169845111344</v>
       </c>
       <c r="Q10">
-        <v>0.2555590466961111</v>
+        <v>0.1834075216194445</v>
       </c>
       <c r="R10">
-        <v>2.300031420265</v>
+        <v>1.650667694575</v>
       </c>
       <c r="S10">
-        <v>0.005000880275213312</v>
+        <v>0.002485458469525098</v>
       </c>
       <c r="T10">
-        <v>0.005000880275213311</v>
+        <v>0.002485458469525099</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.323865</v>
       </c>
       <c r="I11">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J11">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.638666333333333</v>
+        <v>3.342326666666667</v>
       </c>
       <c r="N11">
-        <v>10.915999</v>
+        <v>10.02698</v>
       </c>
       <c r="O11">
-        <v>0.2950275023441256</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="P11">
-        <v>0.2950275023441255</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="Q11">
-        <v>1.605701001792778</v>
+        <v>1.474929764188889</v>
       </c>
       <c r="R11">
-        <v>14.451309016135</v>
+        <v>13.2743678777</v>
       </c>
       <c r="S11">
-        <v>0.03142099084954032</v>
+        <v>0.01998760270020072</v>
       </c>
       <c r="T11">
-        <v>0.03142099084954032</v>
+        <v>0.01998760270020072</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>1.323865</v>
       </c>
       <c r="I12">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J12">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1104196666666667</v>
+        <v>0.1557673333333333</v>
       </c>
       <c r="N12">
-        <v>0.331259</v>
+        <v>0.467302</v>
       </c>
       <c r="O12">
-        <v>0.008952961190177161</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="P12">
-        <v>0.008952961190177158</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="Q12">
-        <v>0.04872691067055555</v>
+        <v>0.06873830691444445</v>
       </c>
       <c r="R12">
-        <v>0.438542196035</v>
+        <v>0.61864476223</v>
       </c>
       <c r="S12">
-        <v>0.0009535074167584549</v>
+        <v>0.0009315114537985711</v>
       </c>
       <c r="T12">
-        <v>0.0009535074167584549</v>
+        <v>0.0009315114537985713</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.323865</v>
       </c>
       <c r="I13">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J13">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9653076666666668</v>
+        <v>0.51114</v>
       </c>
       <c r="N13">
-        <v>2.895923</v>
+        <v>1.53342</v>
       </c>
       <c r="O13">
-        <v>0.07826832245687339</v>
+        <v>0.03736433189016073</v>
       </c>
       <c r="P13">
-        <v>0.07826832245687336</v>
+        <v>0.03736433189016074</v>
       </c>
       <c r="Q13">
-        <v>0.4259790113772223</v>
+        <v>0.2255601187</v>
       </c>
       <c r="R13">
-        <v>3.833811102395</v>
+        <v>2.0300410683</v>
       </c>
       <c r="S13">
-        <v>0.008335725395721763</v>
+        <v>0.003056692018189104</v>
       </c>
       <c r="T13">
-        <v>0.008335725395721765</v>
+        <v>0.003056692018189105</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H14">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I14">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J14">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.948717333333334</v>
+        <v>7.163958</v>
       </c>
       <c r="N14">
-        <v>14.846152</v>
+        <v>21.491874</v>
       </c>
       <c r="O14">
-        <v>0.4012480345574643</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="P14">
-        <v>0.4012480345574642</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="Q14">
-        <v>0.3273691986071111</v>
+        <v>0.319994899972</v>
       </c>
       <c r="R14">
-        <v>2.946322787464</v>
+        <v>2.879954099748</v>
       </c>
       <c r="S14">
-        <v>0.006406089665741439</v>
+        <v>0.00433643084709741</v>
       </c>
       <c r="T14">
-        <v>0.006406089665741437</v>
+        <v>0.00433643084709741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H15">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I15">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J15">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>2.091081</v>
       </c>
       <c r="N15">
-        <v>6.273243000000001</v>
+        <v>6.273242999999999</v>
       </c>
       <c r="O15">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686175</v>
       </c>
       <c r="P15">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686176</v>
       </c>
       <c r="Q15">
-        <v>0.138329887339</v>
+        <v>0.09340301205399999</v>
       </c>
       <c r="R15">
-        <v>1.244968986051</v>
+        <v>0.840627108486</v>
       </c>
       <c r="S15">
-        <v>0.002706893823597174</v>
+        <v>0.001265756743992538</v>
       </c>
       <c r="T15">
-        <v>0.002706893823597173</v>
+        <v>0.001265756743992539</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H16">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I16">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J16">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5791203333333333</v>
+        <v>0.4156183333333334</v>
       </c>
       <c r="N16">
-        <v>1.737361</v>
+        <v>1.246855</v>
       </c>
       <c r="O16">
-        <v>0.04695578265444075</v>
+        <v>0.03038169845111343</v>
       </c>
       <c r="P16">
-        <v>0.04695578265444072</v>
+        <v>0.03038169845111344</v>
       </c>
       <c r="Q16">
-        <v>0.03831016133077778</v>
+        <v>0.01856456263444445</v>
       </c>
       <c r="R16">
-        <v>0.344791451977</v>
+        <v>0.16708106371</v>
       </c>
       <c r="S16">
-        <v>0.0007496683549893745</v>
+        <v>0.000251578828531083</v>
       </c>
       <c r="T16">
-        <v>0.0007496683549893742</v>
+        <v>0.0002515788285310831</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H17">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I17">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J17">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.638666333333333</v>
+        <v>3.342326666666667</v>
       </c>
       <c r="N17">
-        <v>10.915999</v>
+        <v>10.02698</v>
       </c>
       <c r="O17">
-        <v>0.2950275023441256</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="P17">
-        <v>0.2950275023441255</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="Q17">
-        <v>0.2407062681714444</v>
+        <v>0.1492928193288889</v>
       </c>
       <c r="R17">
-        <v>2.166356413543</v>
+        <v>1.34363537396</v>
       </c>
       <c r="S17">
-        <v>0.00471023524379542</v>
+        <v>0.002023150953482641</v>
       </c>
       <c r="T17">
-        <v>0.00471023524379542</v>
+        <v>0.002023150953482641</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04466733333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.134002</v>
+      </c>
+      <c r="I18">
+        <v>0.008280604487464496</v>
+      </c>
+      <c r="J18">
+        <v>0.008280604487464496</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="L18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G18">
-        <v>0.06615233333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.198457</v>
-      </c>
-      <c r="I18">
-        <v>0.01596541070364794</v>
-      </c>
-      <c r="J18">
-        <v>0.01596541070364794</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>0.1104196666666667</v>
+        <v>0.1557673333333333</v>
       </c>
       <c r="N18">
-        <v>0.331259</v>
+        <v>0.467302</v>
       </c>
       <c r="O18">
-        <v>0.008952961190177161</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="P18">
-        <v>0.008952961190177158</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="Q18">
-        <v>0.007304518595888887</v>
+        <v>0.006957711400444445</v>
       </c>
       <c r="R18">
-        <v>0.06574066736299999</v>
+        <v>0.06261940260400001</v>
       </c>
       <c r="S18">
-        <v>0.000142937702414999</v>
+        <v>9.428786004004649E-05</v>
       </c>
       <c r="T18">
-        <v>0.000142937702414999</v>
+        <v>9.428786004004649E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H19">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I19">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J19">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9653076666666668</v>
+        <v>0.51114</v>
       </c>
       <c r="N19">
-        <v>2.895923</v>
+        <v>1.53342</v>
       </c>
       <c r="O19">
-        <v>0.07826832245687339</v>
+        <v>0.03736433189016073</v>
       </c>
       <c r="P19">
-        <v>0.07826832245687336</v>
+        <v>0.03736433189016074</v>
       </c>
       <c r="Q19">
-        <v>0.06385735453455556</v>
+        <v>0.02283126076</v>
       </c>
       <c r="R19">
-        <v>0.574716190811</v>
+        <v>0.20548134684</v>
       </c>
       <c r="S19">
-        <v>0.001249585913109535</v>
+        <v>0.0003093992543207777</v>
       </c>
       <c r="T19">
-        <v>0.001249585913109534</v>
+        <v>0.0003093992543207778</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H20">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I20">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J20">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.948717333333334</v>
+        <v>7.163958</v>
       </c>
       <c r="N20">
-        <v>14.846152</v>
+        <v>21.491874</v>
       </c>
       <c r="O20">
-        <v>0.4012480345574643</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="P20">
-        <v>0.4012480345574642</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="Q20">
-        <v>4.624665424912001</v>
+        <v>2.670107442012</v>
       </c>
       <c r="R20">
-        <v>41.621988824208</v>
+        <v>24.030966978108</v>
       </c>
       <c r="S20">
-        <v>0.09049727803377092</v>
+        <v>0.0361841275520902</v>
       </c>
       <c r="T20">
-        <v>0.0904972780337709</v>
+        <v>0.0361841275520902</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H21">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I21">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J21">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>2.091081</v>
       </c>
       <c r="N21">
-        <v>6.273243000000001</v>
+        <v>6.273242999999999</v>
       </c>
       <c r="O21">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686175</v>
       </c>
       <c r="P21">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686176</v>
       </c>
       <c r="Q21">
-        <v>1.954152833958001</v>
+        <v>0.7793751638339999</v>
       </c>
       <c r="R21">
-        <v>17.587375505622</v>
+        <v>7.014376474505998</v>
       </c>
       <c r="S21">
-        <v>0.03823963380843785</v>
+        <v>0.01056175114730605</v>
       </c>
       <c r="T21">
-        <v>0.03823963380843785</v>
+        <v>0.01056175114730605</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H22">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I22">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J22">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5791203333333333</v>
+        <v>0.4156183333333334</v>
       </c>
       <c r="N22">
-        <v>1.737361</v>
+        <v>1.246855</v>
       </c>
       <c r="O22">
-        <v>0.04695578265444075</v>
+        <v>0.03038169845111343</v>
       </c>
       <c r="P22">
-        <v>0.04695578265444072</v>
+        <v>0.03038169845111344</v>
       </c>
       <c r="Q22">
-        <v>0.541198375666</v>
+        <v>0.15490677149</v>
       </c>
       <c r="R22">
-        <v>4.870785380994</v>
+        <v>1.39416094341</v>
       </c>
       <c r="S22">
-        <v>0.01059038338432951</v>
+        <v>0.002099228776372011</v>
       </c>
       <c r="T22">
-        <v>0.0105903833843295</v>
+        <v>0.002099228776372011</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H23">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I23">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J23">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.638666333333333</v>
+        <v>3.342326666666667</v>
       </c>
       <c r="N23">
-        <v>10.915999</v>
+        <v>10.02698</v>
       </c>
       <c r="O23">
-        <v>0.2950275023441256</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="P23">
-        <v>0.2950275023441255</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="Q23">
-        <v>3.400399184494</v>
+        <v>1.24573194124</v>
       </c>
       <c r="R23">
-        <v>30.603592660446</v>
+        <v>11.21158747116</v>
       </c>
       <c r="S23">
-        <v>0.06654035311772134</v>
+        <v>0.01688161410597594</v>
       </c>
       <c r="T23">
-        <v>0.06654035311772134</v>
+        <v>0.01688161410597594</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H24">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I24">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J24">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1104196666666667</v>
+        <v>0.1557673333333333</v>
       </c>
       <c r="N24">
-        <v>0.331259</v>
+        <v>0.467302</v>
       </c>
       <c r="O24">
-        <v>0.008952961190177161</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="P24">
-        <v>0.008952961190177158</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="Q24">
-        <v>0.103189166054</v>
+        <v>0.058056665876</v>
       </c>
       <c r="R24">
-        <v>0.928702494486</v>
+        <v>0.522509992884</v>
       </c>
       <c r="S24">
-        <v>0.002019246322157345</v>
+        <v>0.0007867585289838782</v>
       </c>
       <c r="T24">
-        <v>0.002019246322157345</v>
+        <v>0.0007867585289838782</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H25">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I25">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J25">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9653076666666668</v>
+        <v>0.51114</v>
       </c>
       <c r="N25">
-        <v>2.895923</v>
+        <v>1.53342</v>
       </c>
       <c r="O25">
-        <v>0.07826832245687339</v>
+        <v>0.03736433189016073</v>
       </c>
       <c r="P25">
-        <v>0.07826832245687336</v>
+        <v>0.03736433189016074</v>
       </c>
       <c r="Q25">
-        <v>0.9020973900380002</v>
+        <v>0.19050903396</v>
       </c>
       <c r="R25">
-        <v>8.118876510342002</v>
+        <v>1.71458130564</v>
       </c>
       <c r="S25">
-        <v>0.01765259771659296</v>
+        <v>0.002581695056974844</v>
       </c>
       <c r="T25">
-        <v>0.01765259771659295</v>
+        <v>0.002581695056974844</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H26">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I26">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J26">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.948717333333334</v>
+        <v>7.163958</v>
       </c>
       <c r="N26">
-        <v>14.846152</v>
+        <v>21.491874</v>
       </c>
       <c r="O26">
-        <v>0.4012480345574643</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="P26">
-        <v>0.4012480345574642</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="Q26">
-        <v>1.288415053457778</v>
+        <v>0.8884286994260001</v>
       </c>
       <c r="R26">
-        <v>11.59573548112</v>
+        <v>7.995858294834</v>
       </c>
       <c r="S26">
-        <v>0.02521221420420549</v>
+        <v>0.01203959693724696</v>
       </c>
       <c r="T26">
-        <v>0.02521221420420548</v>
+        <v>0.01203959693724696</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H27">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I27">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J27">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>2.091081</v>
       </c>
       <c r="N27">
-        <v>6.273243000000001</v>
+        <v>6.273242999999999</v>
       </c>
       <c r="O27">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686175</v>
       </c>
       <c r="P27">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686176</v>
       </c>
       <c r="Q27">
-        <v>0.5444199086200001</v>
+        <v>0.259322622107</v>
       </c>
       <c r="R27">
-        <v>4.89977917758</v>
+        <v>2.333903598962999</v>
       </c>
       <c r="S27">
-        <v>0.0106534236124642</v>
+        <v>0.003514226689092163</v>
       </c>
       <c r="T27">
-        <v>0.0106534236124642</v>
+        <v>0.003514226689092164</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H28">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I28">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J28">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.5791203333333333</v>
+        <v>0.4156183333333334</v>
       </c>
       <c r="N28">
-        <v>1.737361</v>
+        <v>1.246855</v>
       </c>
       <c r="O28">
-        <v>0.04695578265444075</v>
+        <v>0.03038169845111343</v>
       </c>
       <c r="P28">
-        <v>0.04695578265444072</v>
+        <v>0.03038169845111344</v>
       </c>
       <c r="Q28">
-        <v>0.1507759091844444</v>
+        <v>0.05154235345055556</v>
       </c>
       <c r="R28">
-        <v>1.35698318266</v>
+        <v>0.463881181055</v>
       </c>
       <c r="S28">
-        <v>0.002950442490554634</v>
+        <v>0.0006984794178111719</v>
       </c>
       <c r="T28">
-        <v>0.002950442490554632</v>
+        <v>0.0006984794178111721</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H29">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I29">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J29">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.638666333333333</v>
+        <v>3.342326666666667</v>
       </c>
       <c r="N29">
-        <v>10.915999</v>
+        <v>10.02698</v>
       </c>
       <c r="O29">
-        <v>0.2950275023441256</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="P29">
-        <v>0.2950275023441255</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="Q29">
-        <v>0.947338908771111</v>
+        <v>0.4144941851311111</v>
       </c>
       <c r="R29">
-        <v>8.526050178939999</v>
+        <v>3.73044766618</v>
       </c>
       <c r="S29">
-        <v>0.01853790160850386</v>
+        <v>0.005617043804455422</v>
       </c>
       <c r="T29">
-        <v>0.01853790160850386</v>
+        <v>0.005617043804455422</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1240136666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.372041</v>
+      </c>
+      <c r="I30">
+        <v>0.02299013726750928</v>
+      </c>
+      <c r="J30">
+        <v>0.02299013726750928</v>
+      </c>
+      <c r="K30">
         <v>2</v>
       </c>
-      <c r="F30">
+      <c r="L30">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G30">
-        <v>0.2603533333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.78106</v>
-      </c>
-      <c r="I30">
-        <v>0.06283448648418176</v>
-      </c>
-      <c r="J30">
-        <v>0.06283448648418177</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
       <c r="M30">
-        <v>0.1104196666666667</v>
+        <v>0.1557673333333333</v>
       </c>
       <c r="N30">
-        <v>0.331259</v>
+        <v>0.467302</v>
       </c>
       <c r="O30">
-        <v>0.008952961190177161</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="P30">
-        <v>0.008952961190177158</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="Q30">
-        <v>0.02874812828222222</v>
+        <v>0.01931727815355556</v>
       </c>
       <c r="R30">
-        <v>0.25873315454</v>
+        <v>0.173855503382</v>
       </c>
       <c r="S30">
-        <v>0.0005625547188975907</v>
+        <v>0.0002617792998399945</v>
       </c>
       <c r="T30">
-        <v>0.0005625547188975906</v>
+        <v>0.0002617792998399945</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H31">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I31">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J31">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.9653076666666668</v>
+        <v>0.51114</v>
       </c>
       <c r="N31">
-        <v>2.895923</v>
+        <v>1.53342</v>
       </c>
       <c r="O31">
-        <v>0.07826832245687339</v>
+        <v>0.03736433189016073</v>
       </c>
       <c r="P31">
-        <v>0.07826832245687336</v>
+        <v>0.03736433189016074</v>
       </c>
       <c r="Q31">
-        <v>0.2513210687088889</v>
+        <v>0.06338834558000001</v>
       </c>
       <c r="R31">
-        <v>2.26188961838</v>
+        <v>0.57049511022</v>
       </c>
       <c r="S31">
-        <v>0.00491794984955599</v>
+        <v>0.0008590111190635698</v>
       </c>
       <c r="T31">
-        <v>0.00491794984955599</v>
+        <v>0.0008590111190635699</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H32">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I32">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J32">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.948717333333334</v>
+        <v>7.163958</v>
       </c>
       <c r="N32">
-        <v>14.846152</v>
+        <v>21.491874</v>
       </c>
       <c r="O32">
-        <v>0.4012480345574643</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="P32">
-        <v>0.4012480345574642</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="Q32">
-        <v>0.3788672007502223</v>
+        <v>2.146875829552</v>
       </c>
       <c r="R32">
-        <v>3.409804806752</v>
+        <v>19.321882465968</v>
       </c>
       <c r="S32">
-        <v>0.007413822893971142</v>
+        <v>0.02909352171853912</v>
       </c>
       <c r="T32">
-        <v>0.007413822893971141</v>
+        <v>0.02909352171853912</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H33">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I33">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J33">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>2.091081</v>
       </c>
       <c r="N33">
-        <v>6.273243000000001</v>
+        <v>6.273242999999999</v>
       </c>
       <c r="O33">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686175</v>
       </c>
       <c r="P33">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686176</v>
       </c>
       <c r="Q33">
-        <v>0.1600903732520001</v>
+        <v>0.6266495778639999</v>
       </c>
       <c r="R33">
-        <v>1.440813359268</v>
+        <v>5.639846200776</v>
       </c>
       <c r="S33">
-        <v>0.003132711599129809</v>
+        <v>0.008492080842562796</v>
       </c>
       <c r="T33">
-        <v>0.003132711599129809</v>
+        <v>0.008492080842562798</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H34">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I34">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J34">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.5791203333333333</v>
+        <v>0.4156183333333334</v>
       </c>
       <c r="N34">
-        <v>1.737361</v>
+        <v>1.246855</v>
       </c>
       <c r="O34">
-        <v>0.04695578265444075</v>
+        <v>0.03038169845111343</v>
       </c>
       <c r="P34">
-        <v>0.04695578265444072</v>
+        <v>0.03038169845111344</v>
       </c>
       <c r="Q34">
-        <v>0.04433668055955556</v>
+        <v>0.1245513938177778</v>
       </c>
       <c r="R34">
-        <v>0.399030125036</v>
+        <v>1.12096254436</v>
       </c>
       <c r="S34">
-        <v>0.0008675976614608686</v>
+        <v>0.001687865982387999</v>
       </c>
       <c r="T34">
-        <v>0.0008675976614608683</v>
+        <v>0.001687865982387999</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H35">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I35">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J35">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.638666333333333</v>
+        <v>3.342326666666667</v>
       </c>
       <c r="N35">
-        <v>10.915999</v>
+        <v>10.02698</v>
       </c>
       <c r="O35">
-        <v>0.2950275023441256</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="P35">
-        <v>0.2950275023441255</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="Q35">
-        <v>0.2785714429248889</v>
+        <v>1.001619542595556</v>
       </c>
       <c r="R35">
-        <v>2.507142986324</v>
+        <v>9.014575883360001</v>
       </c>
       <c r="S35">
-        <v>0.005451195925837623</v>
+        <v>0.01357350970889543</v>
       </c>
       <c r="T35">
-        <v>0.005451195925837622</v>
+        <v>0.01357350970889544</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H36">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I36">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J36">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.1104196666666667</v>
+        <v>0.1557673333333333</v>
       </c>
       <c r="N36">
-        <v>0.331259</v>
+        <v>0.467302</v>
       </c>
       <c r="O36">
-        <v>0.008952961190177161</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="P36">
-        <v>0.008952961190177158</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="Q36">
-        <v>0.008453582453777779</v>
+        <v>0.04667993907377779</v>
       </c>
       <c r="R36">
-        <v>0.076082242084</v>
+        <v>0.420119451664</v>
       </c>
       <c r="S36">
-        <v>0.0001654230374331332</v>
+        <v>0.0006325861060844098</v>
       </c>
       <c r="T36">
-        <v>0.0001654230374331332</v>
+        <v>0.0006325861060844098</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H37">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I37">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J37">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.9653076666666668</v>
+        <v>0.51114</v>
       </c>
       <c r="N37">
-        <v>2.895923</v>
+        <v>1.53342</v>
       </c>
       <c r="O37">
-        <v>0.07826832245687339</v>
+        <v>0.03736433189016073</v>
       </c>
       <c r="P37">
-        <v>0.07826832245687336</v>
+        <v>0.03736433189016074</v>
       </c>
       <c r="Q37">
-        <v>0.07390266788311113</v>
+        <v>0.15317707216</v>
       </c>
       <c r="R37">
-        <v>0.6651240109480001</v>
+        <v>1.37859364944</v>
       </c>
       <c r="S37">
-        <v>0.001446156568825214</v>
+        <v>0.002075788648009115</v>
       </c>
       <c r="T37">
-        <v>0.001446156568825214</v>
+        <v>0.002075788648009115</v>
       </c>
     </row>
   </sheetData>
